--- a/out/xls/factoranalysis/indexregwcontrols/clean_vaindexwcontrols_compcaseregs_all_testscore.xlsx
+++ b/out/xls/factoranalysis/indexregwcontrols/clean_vaindexwcontrols_compcaseregs_all_testscore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Dropbox\Davis\Research Projects\Ed Lab GSR\caschls\out\xls\factoranalysis\indexregwcontrols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBE047-7680-44A2-8AE9-46112F064B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC96A58-F4D0-4D9A-9535-BB71F9FB0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="402">
   <si>
     <t>Value-Added Regressions on Category Index: Complete Case Analysis</t>
   </si>
@@ -111,9 +111,6 @@
     <t>-0.01</t>
   </si>
   <si>
-    <t>-0.11</t>
-  </si>
-  <si>
     <t>(0.08)</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>0.05</t>
   </si>
   <si>
-    <t>0.28***</t>
-  </si>
-  <si>
     <t>0.19**</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
     <t>-0.15</t>
   </si>
   <si>
-    <t>(1.83)</t>
-  </si>
-  <si>
-    <t>(1.88)</t>
-  </si>
-  <si>
     <t>(1.77)</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>0.12</t>
   </si>
   <si>
-    <t>-0.19</t>
-  </si>
-  <si>
     <t>-0.23</t>
   </si>
   <si>
@@ -183,24 +168,9 @@
     <t>(0.39)</t>
   </si>
   <si>
-    <t>(0.46)</t>
-  </si>
-  <si>
-    <t>(0.49)</t>
-  </si>
-  <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
-    <t>(0.42)</t>
-  </si>
-  <si>
     <t>-0.37</t>
   </si>
   <si>
-    <t>(0.48)</t>
-  </si>
-  <si>
     <t>0.21</t>
   </si>
   <si>
@@ -237,9 +207,6 @@
     <t>0.32</t>
   </si>
   <si>
-    <t>(1.73)</t>
-  </si>
-  <si>
     <t>(1.76)</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>-0.80*</t>
-  </si>
-  <si>
     <t>(0.41)</t>
   </si>
   <si>
@@ -267,27 +231,18 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>(1.82)</t>
-  </si>
-  <si>
     <t>(0.94)</t>
   </si>
   <si>
     <t>-0.32</t>
   </si>
   <si>
-    <t>-0.44</t>
-  </si>
-  <si>
     <t>-0.29</t>
   </si>
   <si>
     <t>(0.37)</t>
   </si>
   <si>
-    <t>(0.40)</t>
-  </si>
-  <si>
     <t>(0.36)</t>
   </si>
   <si>
@@ -297,15 +252,9 @@
     <t>0.33***</t>
   </si>
   <si>
-    <t>0.35***</t>
-  </si>
-  <si>
     <t>0.18***</t>
   </si>
   <si>
-    <t>-0.92***</t>
-  </si>
-  <si>
     <t>-0.94***</t>
   </si>
   <si>
@@ -393,15 +342,9 @@
     <t>-0.04</t>
   </si>
   <si>
-    <t>-0.46</t>
-  </si>
-  <si>
     <t>-0.12</t>
   </si>
   <si>
-    <t>-0.16</t>
-  </si>
-  <si>
     <t>Proportion of Male Teachers</t>
   </si>
   <si>
@@ -414,39 +357,21 @@
     <t>0.13*</t>
   </si>
   <si>
-    <t>-0.90***</t>
-  </si>
-  <si>
     <t>0.19</t>
   </si>
   <si>
     <t>(0.14)</t>
   </si>
   <si>
-    <t>(0.12)</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
     <t>-0.00</t>
   </si>
   <si>
     <t>(0.15)</t>
   </si>
   <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
     <t>0.17*</t>
   </si>
   <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
     <t>(0.10)</t>
   </si>
   <si>
@@ -456,45 +381,18 @@
     <t>0.51</t>
   </si>
   <si>
-    <t>-2.80</t>
-  </si>
-  <si>
-    <t>(1.84)</t>
-  </si>
-  <si>
-    <t>-1.02</t>
-  </si>
-  <si>
-    <t>-0.56</t>
-  </si>
-  <si>
     <t>(0.79)</t>
   </si>
   <si>
-    <t>(0.77)</t>
-  </si>
-  <si>
-    <t>(0.81)</t>
-  </si>
-  <si>
     <t>(0.82)</t>
   </si>
   <si>
-    <t>(0.74)</t>
-  </si>
-  <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>1.12***</t>
-  </si>
-  <si>
     <t>0.69***</t>
   </si>
   <si>
-    <t>0.72***</t>
-  </si>
-  <si>
     <t>(0.26)</t>
   </si>
   <si>
@@ -504,9 +402,6 @@
     <t>0.28</t>
   </si>
   <si>
-    <t>0.58***</t>
-  </si>
-  <si>
     <t>0.49**</t>
   </si>
   <si>
@@ -525,15 +420,6 @@
     <t>-0.13</t>
   </si>
   <si>
-    <t>-0.49***</t>
-  </si>
-  <si>
-    <t>0.46***</t>
-  </si>
-  <si>
-    <t>0.51***</t>
-  </si>
-  <si>
     <t>NOTE: Reregressions are run using standardized z scores for value added measures and index variables. Demographic controls are natural log transformed.</t>
   </si>
   <si>
@@ -552,36 +438,12 @@
     <t>(0.18)</t>
   </si>
   <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>0.82**</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
     <t>0.38</t>
   </si>
   <si>
-    <t>(2.02)</t>
-  </si>
-  <si>
     <t>(2.15)</t>
   </si>
   <si>
-    <t>(2.26)</t>
-  </si>
-  <si>
-    <t>(2.27)</t>
-  </si>
-  <si>
-    <t>(2.14)</t>
-  </si>
-  <si>
-    <t>(2.01)</t>
-  </si>
-  <si>
     <t>-0.27</t>
   </si>
   <si>
@@ -591,21 +453,9 @@
     <t>(0.83)</t>
   </si>
   <si>
-    <t>(0.88)</t>
-  </si>
-  <si>
-    <t>(0.93)</t>
-  </si>
-  <si>
-    <t>0.86***</t>
-  </si>
-  <si>
     <t>0.72**</t>
   </si>
   <si>
-    <t>0.74**</t>
-  </si>
-  <si>
     <t>0.51*</t>
   </si>
   <si>
@@ -618,93 +468,30 @@
     <t>(0.32)</t>
   </si>
   <si>
-    <t>0.68**</t>
-  </si>
-  <si>
     <t>0.39</t>
   </si>
   <si>
-    <t>0.40</t>
-  </si>
-  <si>
     <t>0.53***</t>
   </si>
   <si>
     <t>0.56***</t>
   </si>
   <si>
-    <t>-0.18**</t>
-  </si>
-  <si>
-    <t>-0.17*</t>
-  </si>
-  <si>
-    <t>0.11*</t>
-  </si>
-  <si>
-    <t>0.29***</t>
-  </si>
-  <si>
-    <t>0.20**</t>
-  </si>
-  <si>
-    <t>-0.56***</t>
-  </si>
-  <si>
     <t>-1.00***</t>
   </si>
   <si>
-    <t>-0.80***</t>
-  </si>
-  <si>
     <t>-0.93***</t>
   </si>
   <si>
-    <t>-0.91***</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>-2.27</t>
-  </si>
-  <si>
-    <t>-0.57</t>
-  </si>
-  <si>
     <t>(0.80)</t>
   </si>
   <si>
-    <t>(0.70)</t>
-  </si>
-  <si>
     <t>1.05***</t>
   </si>
   <si>
-    <t>1.07***</t>
-  </si>
-  <si>
-    <t>0.67**</t>
-  </si>
-  <si>
-    <t>0.70***</t>
-  </si>
-  <si>
     <t>0.71***</t>
   </si>
   <si>
-    <t>0.50**</t>
-  </si>
-  <si>
-    <t>0.49***</t>
-  </si>
-  <si>
-    <t>0.52***</t>
-  </si>
-  <si>
     <t>Counseling Support</t>
   </si>
   <si>
@@ -714,12 +501,6 @@
     <t>Grade 8 ELA Score</t>
   </si>
   <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>0.25***</t>
-  </si>
-  <si>
     <t>0.25**</t>
   </si>
   <si>
@@ -738,39 +519,18 @@
     <t>0.49</t>
   </si>
   <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>0.30</t>
   </si>
   <si>
-    <t>0.18*</t>
-  </si>
-  <si>
     <t>0.40*</t>
   </si>
   <si>
     <t>(0.19)</t>
   </si>
   <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.38</t>
-  </si>
-  <si>
-    <t>-1.82</t>
-  </si>
-  <si>
     <t>(1.59)</t>
   </si>
   <si>
-    <t>-0.87</t>
-  </si>
-  <si>
     <t>0.36</t>
   </si>
   <si>
@@ -789,9 +549,6 @@
     <t>0.60***</t>
   </si>
   <si>
-    <t>0.45**</t>
-  </si>
-  <si>
     <t>0.37*</t>
   </si>
   <si>
@@ -804,117 +561,24 @@
     <t>0.13**</t>
   </si>
   <si>
-    <t>-2.06</t>
-  </si>
-  <si>
     <t>(1.78)</t>
   </si>
   <si>
-    <t>0.39***</t>
-  </si>
-  <si>
     <t>0.34***</t>
   </si>
   <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>-0.72***</t>
-  </si>
-  <si>
-    <t>-0.83***</t>
-  </si>
-  <si>
-    <t>-0.59***</t>
-  </si>
-  <si>
     <t>-0.62***</t>
   </si>
   <si>
-    <t>0.32**</t>
-  </si>
-  <si>
-    <t>0.28*</t>
-  </si>
-  <si>
     <t>-1.08***</t>
   </si>
   <si>
-    <t>-0.22**</t>
-  </si>
-  <si>
-    <t>-0.27***</t>
-  </si>
-  <si>
-    <t>-0.55</t>
-  </si>
-  <si>
-    <t>-0.52</t>
-  </si>
-  <si>
     <t>-0.88**</t>
   </si>
   <si>
-    <t>-0.87**</t>
-  </si>
-  <si>
-    <t>-0.83**</t>
-  </si>
-  <si>
     <t>0.66*</t>
   </si>
   <si>
-    <t>0.73*</t>
-  </si>
-  <si>
-    <t>2.87*</t>
-  </si>
-  <si>
-    <t>-1.45</t>
-  </si>
-  <si>
-    <t>-3.49*</t>
-  </si>
-  <si>
-    <t>-3.33*</t>
-  </si>
-  <si>
-    <t>-0.40</t>
-  </si>
-  <si>
-    <t>-1.17</t>
-  </si>
-  <si>
-    <t>-0.84</t>
-  </si>
-  <si>
-    <t>-2.95*</t>
-  </si>
-  <si>
-    <t>(1.60)</t>
-  </si>
-  <si>
-    <t>(1.74)</t>
-  </si>
-  <si>
-    <t>-1.70**</t>
-  </si>
-  <si>
-    <t>-1.64**</t>
-  </si>
-  <si>
-    <t>-0.88</t>
-  </si>
-  <si>
-    <t>-0.58</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>1.24***</t>
-  </si>
-  <si>
     <t>1.10***</t>
   </si>
   <si>
@@ -924,9 +588,6 @@
     <t>0.52**</t>
   </si>
   <si>
-    <t>376</t>
-  </si>
-  <si>
     <t>370</t>
   </si>
   <si>
@@ -939,135 +600,24 @@
     <t>-0.73***</t>
   </si>
   <si>
-    <t>-0.58***</t>
-  </si>
-  <si>
     <t>0.36*</t>
   </si>
   <si>
-    <t>0.35*</t>
-  </si>
-  <si>
-    <t>0.32*</t>
-  </si>
-  <si>
-    <t>-1.04***</t>
-  </si>
-  <si>
     <t>-1.10***</t>
   </si>
   <si>
     <t>-0.22</t>
   </si>
   <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.54</t>
-  </si>
-  <si>
-    <t>-0.60</t>
-  </si>
-  <si>
-    <t>-0.82*</t>
-  </si>
-  <si>
-    <t>-0.81*</t>
-  </si>
-  <si>
-    <t>-0.74</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.75*</t>
-  </si>
-  <si>
-    <t>(0.50)</t>
-  </si>
-  <si>
     <t>(0.44)</t>
   </si>
   <si>
-    <t>-2.82</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>-1.70</t>
-  </si>
-  <si>
-    <t>-0.93</t>
-  </si>
-  <si>
-    <t>-3.00</t>
-  </si>
-  <si>
-    <t>-2.81</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>-3.24*</t>
-  </si>
-  <si>
-    <t>-2.66</t>
-  </si>
-  <si>
-    <t>-4.71**</t>
-  </si>
-  <si>
-    <t>-4.90**</t>
-  </si>
-  <si>
-    <t>(2.21)</t>
-  </si>
-  <si>
-    <t>(2.28)</t>
-  </si>
-  <si>
-    <t>(2.13)</t>
-  </si>
-  <si>
-    <t>(1.93)</t>
-  </si>
-  <si>
-    <t>-1.84**</t>
-  </si>
-  <si>
     <t>-1.84*</t>
   </si>
   <si>
-    <t>-1.52</t>
-  </si>
-  <si>
-    <t>-1.54*</t>
-  </si>
-  <si>
-    <t>-1.53**</t>
-  </si>
-  <si>
-    <t>-1.51*</t>
-  </si>
-  <si>
     <t>-1.24</t>
   </si>
   <si>
-    <t>-1.23</t>
-  </si>
-  <si>
     <t>-0.35</t>
   </si>
   <si>
@@ -1083,9 +633,6 @@
     <t>0.57***</t>
   </si>
   <si>
-    <t>-0.18*</t>
-  </si>
-  <si>
     <t>(0.35)</t>
   </si>
   <si>
@@ -1098,12 +645,6 @@
     <t>0.37</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
     <t>0.20***</t>
   </si>
   <si>
@@ -1113,118 +654,583 @@
     <t>0.38***</t>
   </si>
   <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.76***</t>
-  </si>
-  <si>
-    <t>-0.85***</t>
-  </si>
-  <si>
     <t>-0.64***</t>
   </si>
   <si>
-    <t>0.29*</t>
-  </si>
-  <si>
-    <t>0.31**</t>
-  </si>
-  <si>
-    <t>0.31*</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>-0.73*</t>
-  </si>
-  <si>
-    <t>-0.71*</t>
-  </si>
-  <si>
-    <t>-0.69*</t>
-  </si>
-  <si>
-    <t>-1.86</t>
-  </si>
-  <si>
-    <t>3.39**</t>
-  </si>
-  <si>
-    <t>-0.77</t>
-  </si>
-  <si>
-    <t>-2.61</t>
-  </si>
-  <si>
-    <t>-2.44</t>
-  </si>
-  <si>
     <t>-0.28</t>
   </si>
   <si>
-    <t>-2.11</t>
-  </si>
-  <si>
-    <t>(1.63)</t>
-  </si>
-  <si>
     <t>(1.87)</t>
   </si>
   <si>
     <t>(1.68)</t>
   </si>
   <si>
-    <t>-1.89**</t>
-  </si>
-  <si>
     <t>-1.79**</t>
   </si>
   <si>
-    <t>-1.00</t>
-  </si>
-  <si>
-    <t>-0.76</t>
-  </si>
-  <si>
     <t>-0.45</t>
   </si>
   <si>
     <t>(0.84)</t>
   </si>
   <si>
-    <t>1.00***</t>
-  </si>
-  <si>
     <t>1.16***</t>
   </si>
   <si>
-    <t>0.61***</t>
-  </si>
-  <si>
-    <t>0.58**</t>
-  </si>
-  <si>
-    <t>0.53**</t>
-  </si>
-  <si>
     <t>-0.51***</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
     <t>0.55***</t>
   </si>
   <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>357</t>
+    <t>386</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>0.18**</t>
+  </si>
+  <si>
+    <t>0.12*</t>
+  </si>
+  <si>
+    <t>-0.40***</t>
+  </si>
+  <si>
+    <t>-0.71***</t>
+  </si>
+  <si>
+    <t>0.44***</t>
+  </si>
+  <si>
+    <t>0.43***</t>
+  </si>
+  <si>
+    <t>0.40***</t>
+  </si>
+  <si>
+    <t>-1.03***</t>
+  </si>
+  <si>
+    <t>-1.11***</t>
+  </si>
+  <si>
+    <t>-0.95***</t>
+  </si>
+  <si>
+    <t>-0.09*</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>-0.51</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>-1.09***</t>
+  </si>
+  <si>
+    <t>-1.06***</t>
+  </si>
+  <si>
+    <t>0.99***</t>
+  </si>
+  <si>
+    <t>1.01***</t>
+  </si>
+  <si>
+    <t>0.81**</t>
+  </si>
+  <si>
+    <t>0.80**</t>
+  </si>
+  <si>
+    <t>4.57***</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>-1.66</t>
+  </si>
+  <si>
+    <t>-1.53</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>-1.15</t>
+  </si>
+  <si>
+    <t>-3.38**</t>
+  </si>
+  <si>
+    <t>-3.51**</t>
+  </si>
+  <si>
+    <t>(1.48)</t>
+  </si>
+  <si>
+    <t>(1.62)</t>
+  </si>
+  <si>
+    <t>(1.70)</t>
+  </si>
+  <si>
+    <t>(1.65)</t>
+  </si>
+  <si>
+    <t>(1.49)</t>
+  </si>
+  <si>
+    <t>(1.57)</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>-1.78**</t>
+  </si>
+  <si>
+    <t>-1.72**</t>
+  </si>
+  <si>
+    <t>-1.69**</t>
+  </si>
+  <si>
+    <t>-1.20</t>
+  </si>
+  <si>
+    <t>-1.19</t>
+  </si>
+  <si>
+    <t>-1.21</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>(0.69)</t>
+  </si>
+  <si>
+    <t>(0.76)</t>
+  </si>
+  <si>
+    <t>1.22***</t>
+  </si>
+  <si>
+    <t>1.11***</t>
+  </si>
+  <si>
+    <t>0.61**</t>
+  </si>
+  <si>
+    <t>0.41*</t>
+  </si>
+  <si>
+    <t>0.48**</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>0.67***</t>
+  </si>
+  <si>
+    <t>0.65***</t>
+  </si>
+  <si>
+    <t>0.07**</t>
+  </si>
+  <si>
+    <t>-0.09**</t>
+  </si>
+  <si>
+    <t>-0.08**</t>
+  </si>
+  <si>
+    <t>0.08**</t>
+  </si>
+  <si>
+    <t>0.12***</t>
+  </si>
+  <si>
+    <t>0.16***</t>
+  </si>
+  <si>
+    <t>0.12**</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.16**</t>
+  </si>
+  <si>
+    <t>0.14**</t>
+  </si>
+  <si>
+    <t>-0.16*</t>
+  </si>
+  <si>
+    <t>0.30***</t>
+  </si>
+  <si>
+    <t>0.16*</t>
+  </si>
+  <si>
+    <t>-0.69***</t>
+  </si>
+  <si>
+    <t>-0.48**</t>
+  </si>
+  <si>
+    <t>-0.49**</t>
+  </si>
+  <si>
+    <t>0.46**</t>
+  </si>
+  <si>
+    <t>0.43**</t>
+  </si>
+  <si>
+    <t>-1.13***</t>
+  </si>
+  <si>
+    <t>-0.97***</t>
+  </si>
+  <si>
+    <t>-0.96***</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>-0.93**</t>
+  </si>
+  <si>
+    <t>-0.92**</t>
+  </si>
+  <si>
+    <t>0.92**</t>
+  </si>
+  <si>
+    <t>0.97**</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>-1.54</t>
+  </si>
+  <si>
+    <t>4.03**</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>-0.95</t>
+  </si>
+  <si>
+    <t>-0.75</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.67*</t>
+  </si>
+  <si>
+    <t>-2.73</t>
+  </si>
+  <si>
+    <t>-2.34</t>
+  </si>
+  <si>
+    <t>-4.83**</t>
+  </si>
+  <si>
+    <t>-5.03**</t>
+  </si>
+  <si>
+    <t>(2.11)</t>
+  </si>
+  <si>
+    <t>(1.89)</t>
+  </si>
+  <si>
+    <t>(2.05)</t>
+  </si>
+  <si>
+    <t>(2.18)</t>
+  </si>
+  <si>
+    <t>(2.16)</t>
+  </si>
+  <si>
+    <t>(2.04)</t>
+  </si>
+  <si>
+    <t>(1.96)</t>
+  </si>
+  <si>
+    <t>(1.95)</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>-1.86**</t>
+  </si>
+  <si>
+    <t>-1.55</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>-1.36*</t>
+  </si>
+  <si>
+    <t>-1.33</t>
+  </si>
+  <si>
+    <t>-1.05</t>
+  </si>
+  <si>
+    <t>-1.04</t>
+  </si>
+  <si>
+    <t>(0.90)</t>
+  </si>
+  <si>
+    <t>(0.96)</t>
+  </si>
+  <si>
+    <t>(0.95)</t>
+  </si>
+  <si>
+    <t>(0.89)</t>
+  </si>
+  <si>
+    <t>(0.86)</t>
+  </si>
+  <si>
+    <t>0.77**</t>
+  </si>
+  <si>
+    <t>0.85***</t>
+  </si>
+  <si>
+    <t>0.73**</t>
+  </si>
+  <si>
+    <t>0.77***</t>
+  </si>
+  <si>
+    <t>0.62***</t>
+  </si>
+  <si>
+    <t>0.55**</t>
+  </si>
+  <si>
+    <t>-0.11**</t>
+  </si>
+  <si>
+    <t>-0.10**</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>0.09*</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>0.56**</t>
+  </si>
+  <si>
+    <t>0.47*</t>
+  </si>
+  <si>
+    <t>0.39*</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>0.10*</t>
+  </si>
+  <si>
+    <t>0.13***</t>
+  </si>
+  <si>
+    <t>0.32***</t>
+  </si>
+  <si>
+    <t>-0.43***</t>
+  </si>
+  <si>
+    <t>-0.65***</t>
+  </si>
+  <si>
+    <t>-0.50***</t>
+  </si>
+  <si>
+    <t>-0.52***</t>
+  </si>
+  <si>
+    <t>0.40**</t>
+  </si>
+  <si>
+    <t>0.42***</t>
+  </si>
+  <si>
+    <t>0.39**</t>
+  </si>
+  <si>
+    <t>-1.01***</t>
+  </si>
+  <si>
+    <t>-0.58**</t>
+  </si>
+  <si>
+    <t>4.90***</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>-1.06</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>-2.65</t>
+  </si>
+  <si>
+    <t>-2.80*</t>
+  </si>
+  <si>
+    <t>(1.52)</t>
+  </si>
+  <si>
+    <t>(1.69)</t>
+  </si>
+  <si>
+    <t>(1.51)</t>
+  </si>
+  <si>
+    <t>(1.64)</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>-1.90**</t>
+  </si>
+  <si>
+    <t>-1.87**</t>
+  </si>
+  <si>
+    <t>-1.22</t>
+  </si>
+  <si>
+    <t>1.02***</t>
+  </si>
+  <si>
+    <t>1.14***</t>
+  </si>
+  <si>
+    <t>1.04***</t>
+  </si>
+  <si>
+    <t>1.06***</t>
+  </si>
+  <si>
+    <t>0.59**</t>
+  </si>
+  <si>
+    <t>0.54***</t>
+  </si>
+  <si>
+    <t>0.59***</t>
+  </si>
+  <si>
+    <t>0.10**</t>
+  </si>
+  <si>
+    <t>0.09**</t>
+  </si>
+  <si>
+    <t>0.50*</t>
+  </si>
+  <si>
+    <t>0.51**</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>366</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1596,8 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1676,46 +1682,46 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1723,1273 +1729,1273 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>294</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -2997,46 +3003,46 @@
         <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3061,1273 +3067,1273 @@
         <v>25</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="L40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="O40" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="O50" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>188</v>
+        <v>341</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>188</v>
+        <v>341</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>350</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="J64" s="6" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -4349,49 +4355,49 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="I67" s="6" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -4476,741 +4482,741 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>359</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="L73" s="6" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>368</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="G76" s="6" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>369</v>
+        <v>47</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="E83" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="H83" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="I83" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="J83" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="6" t="s">
+      <c r="K83" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="K83" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="L83" s="6" t="s">
-        <v>378</v>
+        <v>139</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N83" s="6" t="s">
         <v>379</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>381</v>
+        <v>60</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>382</v>
+        <v>167</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>70</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>28</v>
+        <v>385</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>384</v>
+        <v>213</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>387</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>388</v>
+        <v>215</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>389</v>
@@ -5219,533 +5225,533 @@
         <v>390</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>219</v>
+        <v>392</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>155</v>
+        <v>393</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="J89" s="6" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>224</v>
+        <v>396</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>224</v>
+        <v>351</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>49</v>
+        <v>351</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F93" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="O93" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O93" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B96" s="6" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>396</v>
+        <v>218</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -5766,49 +5772,49 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
@@ -5816,46 +5822,46 @@
         <v>24</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
@@ -5893,7 +5899,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/out/xls/factoranalysis/indexregwcontrols/clean_vaindexwcontrols_compcaseregs_all_testscore.xlsx
+++ b/out/xls/factoranalysis/indexregwcontrols/clean_vaindexwcontrols_compcaseregs_all_testscore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Dropbox\Davis\Research Projects\Ed Lab GSR\caschls\out\xls\factoranalysis\indexregwcontrols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC96A58-F4D0-4D9A-9535-BB71F9FB0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE252534-D551-40D9-A152-738B529DCA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="377">
   <si>
     <t>Value-Added Regressions on Category Index: Complete Case Analysis</t>
   </si>
@@ -114,9 +114,6 @@
     <t>(0.08)</t>
   </si>
   <si>
-    <t>0.24***</t>
-  </si>
-  <si>
     <t>0.09</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>0.05</t>
   </si>
   <si>
-    <t>0.19**</t>
-  </si>
-  <si>
     <t>0.11</t>
   </si>
   <si>
@@ -144,21 +138,9 @@
     <t>-0.26</t>
   </si>
   <si>
-    <t>-0.15</t>
-  </si>
-  <si>
     <t>(1.77)</t>
   </si>
   <si>
-    <t>(1.71)</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>-0.23</t>
-  </si>
-  <si>
     <t>-0.08</t>
   </si>
   <si>
@@ -168,9 +150,6 @@
     <t>(0.39)</t>
   </si>
   <si>
-    <t>-0.37</t>
-  </si>
-  <si>
     <t>0.21</t>
   </si>
   <si>
@@ -195,18 +174,9 @@
     <t>-0.09</t>
   </si>
   <si>
-    <t>0.23***</t>
-  </si>
-  <si>
-    <t>0.15*</t>
-  </si>
-  <si>
     <t>0.48</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
     <t>(1.76)</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>(0.94)</t>
   </si>
   <si>
-    <t>-0.32</t>
-  </si>
-  <si>
     <t>-0.29</t>
   </si>
   <si>
@@ -249,30 +216,12 @@
     <t>(0.38)</t>
   </si>
   <si>
-    <t>0.33***</t>
-  </si>
-  <si>
     <t>0.18***</t>
   </si>
   <si>
-    <t>-0.94***</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
     <t>(0.22)</t>
   </si>
   <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>(0.28)</t>
-  </si>
-  <si>
     <t>(0.29)</t>
   </si>
   <si>
@@ -315,27 +264,12 @@
     <t>-0.14</t>
   </si>
   <si>
-    <t>(0.72)</t>
-  </si>
-  <si>
     <t>(0.75)</t>
   </si>
   <si>
     <t>(0.78)</t>
   </si>
   <si>
-    <t>(0.71)</t>
-  </si>
-  <si>
-    <t>-1.03</t>
-  </si>
-  <si>
-    <t>(1.67)</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
     <t>-0.10</t>
   </si>
   <si>
@@ -354,9 +288,6 @@
     <t>Proportion of Minority Staff</t>
   </si>
   <si>
-    <t>0.13*</t>
-  </si>
-  <si>
     <t>0.19</t>
   </si>
   <si>
@@ -369,9 +300,6 @@
     <t>(0.15)</t>
   </si>
   <si>
-    <t>0.17*</t>
-  </si>
-  <si>
     <t>(0.10)</t>
   </si>
   <si>
@@ -384,27 +312,12 @@
     <t>(0.79)</t>
   </si>
   <si>
-    <t>(0.82)</t>
-  </si>
-  <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>0.69***</t>
-  </si>
-  <si>
     <t>(0.26)</t>
   </si>
   <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.49**</t>
-  </si>
-  <si>
     <t>0.22</t>
   </si>
   <si>
@@ -426,9 +339,6 @@
     <t>0.21***</t>
   </si>
   <si>
-    <t>0.17**</t>
-  </si>
-  <si>
     <t>(0.16)</t>
   </si>
   <si>
@@ -438,30 +348,12 @@
     <t>(0.18)</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>(2.15)</t>
-  </si>
-  <si>
     <t>-0.27</t>
   </si>
   <si>
-    <t>(0.91)</t>
-  </si>
-  <si>
     <t>(0.83)</t>
   </si>
   <si>
-    <t>0.72**</t>
-  </si>
-  <si>
-    <t>0.51*</t>
-  </si>
-  <si>
-    <t>(0.31)</t>
-  </si>
-  <si>
     <t>(0.30)</t>
   </si>
   <si>
@@ -474,9 +366,6 @@
     <t>0.53***</t>
   </si>
   <si>
-    <t>0.56***</t>
-  </si>
-  <si>
     <t>-1.00***</t>
   </si>
   <si>
@@ -486,9 +375,6 @@
     <t>(0.80)</t>
   </si>
   <si>
-    <t>1.05***</t>
-  </si>
-  <si>
     <t>0.71***</t>
   </si>
   <si>
@@ -501,15 +387,6 @@
     <t>Grade 8 ELA Score</t>
   </si>
   <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
     <t>0.47</t>
   </si>
   <si>
@@ -522,9 +399,6 @@
     <t>0.30</t>
   </si>
   <si>
-    <t>0.40*</t>
-  </si>
-  <si>
     <t>(0.19)</t>
   </si>
   <si>
@@ -543,192 +417,57 @@
     <t>0.24</t>
   </si>
   <si>
-    <t>0.38*</t>
-  </si>
-  <si>
-    <t>0.60***</t>
-  </si>
-  <si>
-    <t>0.37*</t>
-  </si>
-  <si>
     <t>0.26</t>
   </si>
   <si>
-    <t>0.22***</t>
-  </si>
-  <si>
     <t>0.13**</t>
   </si>
   <si>
     <t>(1.78)</t>
   </si>
   <si>
-    <t>0.34***</t>
-  </si>
-  <si>
-    <t>-0.62***</t>
-  </si>
-  <si>
-    <t>-1.08***</t>
-  </si>
-  <si>
     <t>-0.88**</t>
   </si>
   <si>
-    <t>0.66*</t>
-  </si>
-  <si>
     <t>1.10***</t>
   </si>
   <si>
-    <t>0.57**</t>
-  </si>
-  <si>
-    <t>0.52**</t>
-  </si>
-  <si>
     <t>370</t>
   </si>
   <si>
-    <t>0.24**</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>-0.73***</t>
-  </si>
-  <si>
-    <t>0.36*</t>
-  </si>
-  <si>
-    <t>-1.10***</t>
-  </si>
-  <si>
-    <t>-0.22</t>
-  </si>
-  <si>
     <t>(0.44)</t>
   </si>
   <si>
-    <t>-1.84*</t>
-  </si>
-  <si>
-    <t>-1.24</t>
-  </si>
-  <si>
-    <t>-0.35</t>
-  </si>
-  <si>
-    <t>0.70**</t>
-  </si>
-  <si>
-    <t>0.63**</t>
-  </si>
-  <si>
-    <t>-0.48***</t>
-  </si>
-  <si>
-    <t>0.57***</t>
-  </si>
-  <si>
     <t>(0.35)</t>
   </si>
   <si>
     <t>(0.34)</t>
   </si>
   <si>
-    <t>0.47**</t>
-  </si>
-  <si>
     <t>0.37</t>
   </si>
   <si>
     <t>0.20***</t>
   </si>
   <si>
-    <t>0.15**</t>
-  </si>
-  <si>
-    <t>0.38***</t>
-  </si>
-  <si>
-    <t>-0.64***</t>
-  </si>
-  <si>
     <t>-0.28</t>
   </si>
   <si>
-    <t>(1.87)</t>
-  </si>
-  <si>
     <t>(1.68)</t>
   </si>
   <si>
-    <t>-1.79**</t>
-  </si>
-  <si>
-    <t>-0.45</t>
-  </si>
-  <si>
     <t>(0.84)</t>
   </si>
   <si>
-    <t>1.16***</t>
-  </si>
-  <si>
-    <t>-0.51***</t>
-  </si>
-  <si>
     <t>0.55***</t>
   </si>
   <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>0.18**</t>
-  </si>
-  <si>
-    <t>0.12*</t>
-  </si>
-  <si>
-    <t>-0.40***</t>
-  </si>
-  <si>
-    <t>-0.71***</t>
-  </si>
-  <si>
-    <t>0.44***</t>
-  </si>
-  <si>
-    <t>0.43***</t>
-  </si>
-  <si>
-    <t>0.40***</t>
-  </si>
-  <si>
-    <t>-1.03***</t>
-  </si>
-  <si>
-    <t>-1.11***</t>
-  </si>
-  <si>
-    <t>-0.95***</t>
-  </si>
-  <si>
     <t>-0.09*</t>
   </si>
   <si>
     <t>(0.05)</t>
   </si>
   <si>
-    <t>0.07*</t>
-  </si>
-  <si>
     <t>(0.04)</t>
   </si>
   <si>
@@ -738,126 +477,21 @@
     <t>-0.50</t>
   </si>
   <si>
-    <t>-1.09***</t>
-  </si>
-  <si>
-    <t>-1.06***</t>
-  </si>
-  <si>
-    <t>0.99***</t>
-  </si>
-  <si>
-    <t>1.01***</t>
-  </si>
-  <si>
     <t>0.81**</t>
   </si>
   <si>
-    <t>0.80**</t>
-  </si>
-  <si>
-    <t>4.57***</t>
-  </si>
-  <si>
     <t>0.59</t>
   </si>
   <si>
-    <t>-1.66</t>
-  </si>
-  <si>
-    <t>-1.53</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>-1.15</t>
-  </si>
-  <si>
-    <t>-3.38**</t>
-  </si>
-  <si>
-    <t>-3.51**</t>
-  </si>
-  <si>
-    <t>(1.48)</t>
-  </si>
-  <si>
-    <t>(1.62)</t>
-  </si>
-  <si>
-    <t>(1.70)</t>
-  </si>
-  <si>
-    <t>(1.65)</t>
-  </si>
-  <si>
     <t>(1.49)</t>
   </si>
   <si>
     <t>(1.57)</t>
   </si>
   <si>
-    <t>-0.20</t>
-  </si>
-  <si>
-    <t>-1.78**</t>
-  </si>
-  <si>
-    <t>-1.72**</t>
-  </si>
-  <si>
-    <t>-1.69**</t>
-  </si>
-  <si>
-    <t>-1.20</t>
-  </si>
-  <si>
-    <t>-1.19</t>
-  </si>
-  <si>
-    <t>-1.21</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>(0.69)</t>
-  </si>
-  <si>
     <t>(0.76)</t>
   </si>
   <si>
-    <t>1.22***</t>
-  </si>
-  <si>
-    <t>1.11***</t>
-  </si>
-  <si>
-    <t>0.61**</t>
-  </si>
-  <si>
-    <t>0.41*</t>
-  </si>
-  <si>
-    <t>0.48**</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
     <t>0.67***</t>
   </si>
   <si>
@@ -870,15 +504,9 @@
     <t>-0.09**</t>
   </si>
   <si>
-    <t>-0.08**</t>
-  </si>
-  <si>
     <t>0.08**</t>
   </si>
   <si>
-    <t>0.12***</t>
-  </si>
-  <si>
     <t>0.16***</t>
   </si>
   <si>
@@ -888,9 +516,6 @@
     <t>0.17***</t>
   </si>
   <si>
-    <t>0.46</t>
-  </si>
-  <si>
     <t>0.44</t>
   </si>
   <si>
@@ -900,183 +525,30 @@
     <t>0.14**</t>
   </si>
   <si>
-    <t>-0.16*</t>
-  </si>
-  <si>
-    <t>0.30***</t>
-  </si>
-  <si>
-    <t>0.16*</t>
-  </si>
-  <si>
-    <t>-0.69***</t>
-  </si>
-  <si>
-    <t>-0.48**</t>
-  </si>
-  <si>
-    <t>-0.49**</t>
-  </si>
-  <si>
-    <t>0.46**</t>
-  </si>
-  <si>
-    <t>0.43**</t>
-  </si>
-  <si>
-    <t>-1.13***</t>
-  </si>
-  <si>
     <t>-0.97***</t>
   </si>
   <si>
-    <t>-0.96***</t>
-  </si>
-  <si>
     <t>-0.43</t>
   </si>
   <si>
-    <t>-0.93**</t>
-  </si>
-  <si>
-    <t>-0.92**</t>
-  </si>
-  <si>
-    <t>0.92**</t>
-  </si>
-  <si>
-    <t>0.97**</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>-1.54</t>
-  </si>
-  <si>
-    <t>4.03**</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>-0.95</t>
-  </si>
-  <si>
-    <t>-0.75</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>3.67*</t>
-  </si>
-  <si>
-    <t>-2.73</t>
-  </si>
-  <si>
-    <t>-2.34</t>
-  </si>
-  <si>
-    <t>-4.83**</t>
-  </si>
-  <si>
-    <t>-5.03**</t>
-  </si>
-  <si>
-    <t>(2.11)</t>
-  </si>
-  <si>
-    <t>(1.89)</t>
-  </si>
-  <si>
-    <t>(2.05)</t>
-  </si>
-  <si>
-    <t>(2.18)</t>
-  </si>
-  <si>
     <t>(2.16)</t>
   </si>
   <si>
     <t>(2.04)</t>
   </si>
   <si>
-    <t>(1.96)</t>
-  </si>
-  <si>
-    <t>(1.95)</t>
-  </si>
-  <si>
-    <t>-0.59</t>
-  </si>
-  <si>
-    <t>-1.86**</t>
-  </si>
-  <si>
-    <t>-1.55</t>
-  </si>
-  <si>
-    <t>-0.33</t>
-  </si>
-  <si>
-    <t>-1.36*</t>
-  </si>
-  <si>
-    <t>-1.33</t>
-  </si>
-  <si>
-    <t>-1.05</t>
-  </si>
-  <si>
-    <t>-1.04</t>
-  </si>
-  <si>
-    <t>(0.90)</t>
-  </si>
-  <si>
-    <t>(0.96)</t>
-  </si>
-  <si>
-    <t>(0.95)</t>
-  </si>
-  <si>
-    <t>(0.89)</t>
-  </si>
-  <si>
     <t>(0.86)</t>
   </si>
   <si>
-    <t>0.77**</t>
-  </si>
-  <si>
     <t>0.85***</t>
   </si>
   <si>
-    <t>0.73**</t>
-  </si>
-  <si>
     <t>0.77***</t>
   </si>
   <si>
     <t>0.62***</t>
   </si>
   <si>
-    <t>0.55**</t>
-  </si>
-  <si>
-    <t>-0.11**</t>
-  </si>
-  <si>
     <t>-0.10**</t>
   </si>
   <si>
@@ -1089,21 +561,9 @@
     <t>(0.33)</t>
   </si>
   <si>
-    <t>0.56**</t>
-  </si>
-  <si>
-    <t>0.47*</t>
-  </si>
-  <si>
-    <t>0.39*</t>
-  </si>
-  <si>
     <t>284</t>
   </si>
   <si>
-    <t>281</t>
-  </si>
-  <si>
     <t>0.15***</t>
   </si>
   <si>
@@ -1113,66 +573,12 @@
     <t>0.13***</t>
   </si>
   <si>
-    <t>0.32***</t>
-  </si>
-  <si>
     <t>-0.43***</t>
   </si>
   <si>
-    <t>-0.65***</t>
-  </si>
-  <si>
-    <t>-0.50***</t>
-  </si>
-  <si>
-    <t>-0.52***</t>
-  </si>
-  <si>
-    <t>0.40**</t>
-  </si>
-  <si>
-    <t>0.42***</t>
-  </si>
-  <si>
-    <t>0.39**</t>
-  </si>
-  <si>
     <t>-1.01***</t>
   </si>
   <si>
-    <t>-0.58**</t>
-  </si>
-  <si>
-    <t>4.90***</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>-1.06</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>-2.65</t>
-  </si>
-  <si>
-    <t>-2.80*</t>
-  </si>
-  <si>
-    <t>(1.52)</t>
-  </si>
-  <si>
     <t>(1.69)</t>
   </si>
   <si>
@@ -1185,52 +591,571 @@
     <t>-0.24</t>
   </si>
   <si>
-    <t>-1.90**</t>
-  </si>
-  <si>
-    <t>-1.87**</t>
-  </si>
-  <si>
-    <t>-1.22</t>
-  </si>
-  <si>
-    <t>1.02***</t>
-  </si>
-  <si>
     <t>1.14***</t>
   </si>
   <si>
-    <t>1.04***</t>
-  </si>
-  <si>
     <t>1.06***</t>
   </si>
   <si>
-    <t>0.59**</t>
-  </si>
-  <si>
     <t>0.54***</t>
   </si>
   <si>
-    <t>0.59***</t>
-  </si>
-  <si>
     <t>0.10**</t>
   </si>
   <si>
-    <t>0.09**</t>
-  </si>
-  <si>
-    <t>0.50*</t>
-  </si>
-  <si>
-    <t>0.51**</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>366</t>
+    <t>392</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>0.14***</t>
+  </si>
+  <si>
+    <t>0.05**</t>
+  </si>
+  <si>
+    <t>0.06**</t>
+  </si>
+  <si>
+    <t>0.06*</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>-0.33**</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-0.27*</t>
+  </si>
+  <si>
+    <t>0.52***</t>
+  </si>
+  <si>
+    <t>-0.89***</t>
+  </si>
+  <si>
+    <t>-0.87***</t>
+  </si>
+  <si>
+    <t>-0.86***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>-0.10*</t>
+  </si>
+  <si>
+    <t>0.55*</t>
+  </si>
+  <si>
+    <t>-0.40</t>
+  </si>
+  <si>
+    <t>-0.38</t>
+  </si>
+  <si>
+    <t>-1.02***</t>
+  </si>
+  <si>
+    <t>1.08***</t>
+  </si>
+  <si>
+    <t>0.79**</t>
+  </si>
+  <si>
+    <t>3.69**</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>-0.54</t>
+  </si>
+  <si>
+    <t>-2.43</t>
+  </si>
+  <si>
+    <t>-2.31</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>-1.29</t>
+  </si>
+  <si>
+    <t>-1.32</t>
+  </si>
+  <si>
+    <t>-3.24**</t>
+  </si>
+  <si>
+    <t>-3.36**</t>
+  </si>
+  <si>
+    <t>(1.46)</t>
+  </si>
+  <si>
+    <t>(1.61)</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.46</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>-0.56</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>-0.78</t>
+  </si>
+  <si>
+    <t>-0.77</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>(0.74)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
+  </si>
+  <si>
+    <t>(0.77)</t>
+  </si>
+  <si>
+    <t>(0.70)</t>
+  </si>
+  <si>
+    <t>(0.73)</t>
+  </si>
+  <si>
+    <t>0.35**</t>
+  </si>
+  <si>
+    <t>0.83***</t>
+  </si>
+  <si>
+    <t>0.70***</t>
+  </si>
+  <si>
+    <t>0.68***</t>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>-0.08*</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.93**</t>
+  </si>
+  <si>
+    <t>1.40***</t>
+  </si>
+  <si>
+    <t>0.95**</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.73*</t>
+  </si>
+  <si>
+    <t>0.71*</t>
+  </si>
+  <si>
+    <t>0.76*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>(0.40)</t>
+  </si>
+  <si>
+    <t>0.11*</t>
+  </si>
+  <si>
+    <t>-0.11*</t>
+  </si>
+  <si>
+    <t>-0.30**</t>
+  </si>
+  <si>
+    <t>-0.38**</t>
+  </si>
+  <si>
+    <t>-0.45**</t>
+  </si>
+  <si>
+    <t>0.51***</t>
+  </si>
+  <si>
+    <t>-0.92***</t>
+  </si>
+  <si>
+    <t>-0.99***</t>
+  </si>
+  <si>
+    <t>-0.88***</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>0.71**</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>-0.83**</t>
+  </si>
+  <si>
+    <t>-0.81**</t>
+  </si>
+  <si>
+    <t>-0.76*</t>
+  </si>
+  <si>
+    <t>0.94***</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>-1.12</t>
+  </si>
+  <si>
+    <t>3.12*</t>
+  </si>
+  <si>
+    <t>-0.68</t>
+  </si>
+  <si>
+    <t>-2.00</t>
+  </si>
+  <si>
+    <t>-1.82</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>-3.71**</t>
+  </si>
+  <si>
+    <t>-3.26*</t>
+  </si>
+  <si>
+    <t>-5.28***</t>
+  </si>
+  <si>
+    <t>-5.46***</t>
+  </si>
+  <si>
+    <t>(2.07)</t>
+  </si>
+  <si>
+    <t>(1.84)</t>
+  </si>
+  <si>
+    <t>(2.06)</t>
+  </si>
+  <si>
+    <t>(2.20)</t>
+  </si>
+  <si>
+    <t>(2.17)</t>
+  </si>
+  <si>
+    <t>(2.02)</t>
+  </si>
+  <si>
+    <t>(1.86)</t>
+  </si>
+  <si>
+    <t>(1.93)</t>
+  </si>
+  <si>
+    <t>-0.52</t>
+  </si>
+  <si>
+    <t>-0.87</t>
+  </si>
+  <si>
+    <t>-0.69</t>
+  </si>
+  <si>
+    <t>-0.70</t>
+  </si>
+  <si>
+    <t>-0.80</t>
+  </si>
+  <si>
+    <t>-0.67</t>
+  </si>
+  <si>
+    <t>-0.66</t>
+  </si>
+  <si>
+    <t>(0.88)</t>
+  </si>
+  <si>
+    <t>(0.93)</t>
+  </si>
+  <si>
+    <t>(0.87)</t>
+  </si>
+  <si>
+    <t>0.31*</t>
+  </si>
+  <si>
+    <t>0.92***</t>
+  </si>
+  <si>
+    <t>0.80***</t>
+  </si>
+  <si>
+    <t>0.81***</t>
+  </si>
+  <si>
+    <t>0.11***</t>
+  </si>
+  <si>
+    <t>0.10***</t>
+  </si>
+  <si>
+    <t>-0.64</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(0.50)</t>
+  </si>
+  <si>
+    <t>(0.49)</t>
+  </si>
+  <si>
+    <t>(0.42)</t>
+  </si>
+  <si>
+    <t>1.03**</t>
+  </si>
+  <si>
+    <t>1.47***</t>
+  </si>
+  <si>
+    <t>1.15**</t>
+  </si>
+  <si>
+    <t>0.84*</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.78*</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.81*</t>
+  </si>
+  <si>
+    <t>0.80*</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>-0.41</t>
+  </si>
+  <si>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>-0.25*</t>
+  </si>
+  <si>
+    <t>-0.34**</t>
+  </si>
+  <si>
+    <t>-0.59**</t>
+  </si>
+  <si>
+    <t>-0.91**</t>
+  </si>
+  <si>
+    <t>0.65**</t>
+  </si>
+  <si>
+    <t>3.99***</t>
+  </si>
+  <si>
+    <t>-2.42</t>
+  </si>
+  <si>
+    <t>-2.28</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>-0.94</t>
+  </si>
+  <si>
+    <t>-2.93*</t>
+  </si>
+  <si>
+    <t>-3.06*</t>
+  </si>
+  <si>
+    <t>(1.47)</t>
+  </si>
+  <si>
+    <t>(1.82)</t>
+  </si>
+  <si>
+    <t>(1.83)</t>
+  </si>
+  <si>
+    <t>(1.63)</t>
+  </si>
+  <si>
+    <t>-0.55</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>-0.60</t>
+  </si>
+  <si>
+    <t>-0.58</t>
+  </si>
+  <si>
+    <t>-0.15*</t>
+  </si>
+  <si>
+    <t>0.30*</t>
+  </si>
+  <si>
+    <t>0.82***</t>
+  </si>
+  <si>
+    <t>0.73***</t>
+  </si>
+  <si>
+    <t>0.74***</t>
+  </si>
+  <si>
+    <t>0.64***</t>
+  </si>
+  <si>
+    <t>-0.11***</t>
+  </si>
+  <si>
+    <t>-0.07*</t>
+  </si>
+  <si>
+    <t>-0.68**</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1.63***</t>
+  </si>
+  <si>
+    <t>1.19***</t>
+  </si>
+  <si>
+    <t>0.89**</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.86**</t>
+  </si>
+  <si>
+    <t>0.87**</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>369</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1521,8 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1682,57 +1607,57 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -1744,257 +1669,257 @@
         <v>22</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="N11" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2002,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -2029,33 +1954,33 @@
         <v>22</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>27</v>
@@ -2064,22 +1989,22 @@
         <v>27</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>27</v>
@@ -2090,633 +2015,633 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>31</v>
@@ -2727,275 +2652,275 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="K29" s="6" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -3003,46 +2928,46 @@
         <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3067,57 +2992,57 @@
         <v>25</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>289</v>
+        <v>164</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="M38" s="6" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>23</v>
@@ -3138,7 +3063,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>22</v>
@@ -3155,231 +3080,231 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="H40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="N40" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3387,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>22</v>
@@ -3414,10 +3339,10 @@
         <v>22</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>22</v>
@@ -3428,686 +3353,686 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>333</v>
+        <v>89</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>339</v>
+        <v>58</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>352</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="I60" s="6" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -4115,7 +4040,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>22</v>
@@ -4142,198 +4067,198 @@
         <v>22</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>95</v>
+        <v>331</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -4355,49 +4280,49 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -4405,46 +4330,46 @@
         <v>24</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -4482,322 +4407,322 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>359</v>
+        <v>181</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="I71" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="K71" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>351</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="I73" s="6" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>365</v>
+        <v>36</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>366</v>
+        <v>204</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>368</v>
+        <v>144</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="G77" s="6" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -4805,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>22</v>
@@ -4832,926 +4757,926 @@
         <v>22</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>22</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="L79" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="I81" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N81" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="O81" s="6" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>373</v>
+        <v>219</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>373</v>
+        <v>167</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>375</v>
+        <v>151</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>382</v>
+        <v>184</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>383</v>
+        <v>185</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>385</v>
+        <v>89</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>390</v>
+        <v>101</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>354</v>
+        <v>67</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>394</v>
+        <v>156</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>395</v>
+        <v>156</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I93" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="J93" s="6" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="E95" s="6" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B96" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>34</v>
+        <v>374</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="F98" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -5772,49 +5697,49 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
@@ -5822,46 +5747,46 @@
         <v>24</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
@@ -5899,7 +5824,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
